--- a/ON/bt/strategyON_20230717.xlsx
+++ b/ON/bt/strategyON_20230717.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>49.1%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>67.8%</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>85.9%</t>
+          <t>85.5%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>72.4%</t>
+          <t>72.0%</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>16.3%</t>
+          <t>15.5%</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -921,11 +921,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>52.2%</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110.7%</t>
+          <t>110.2%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>106.4%</t>
+          <t>105.9%</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>20.1%</t>
+          <t>19.2%</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>143.1%</t>
+          <t>142.6%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>137.4%</t>
+          <t>136.9%</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>16.8%</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1660"/>
+  <dimension ref="A1:G1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39700,7 +39700,7 @@
         <v>45122</v>
       </c>
       <c r="B1660" t="n">
-        <v>2.911104770778536</v>
+        <v>2.910744950490614</v>
       </c>
       <c r="C1660" t="n">
         <v>3.017931700066929</v>
@@ -39716,6 +39716,29 @@
       </c>
       <c r="G1660" t="n">
         <v>4.28672157457664</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>2.913564613933041</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>3.009680248969629</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>1.518640594157123</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>3.616780062318732</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>2.114649790849517</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>4.278470123479341</v>
       </c>
     </row>
   </sheetData>
